--- a/medicine/Enfance/Francis_Bergeron/Francis_Bergeron.xlsx
+++ b/medicine/Enfance/Francis_Bergeron/Francis_Bergeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Bergeron, né le 27 juin 1952 à Crosne, est un journaliste, écrivain et scénariste de bandes dessinées français.
 Il est l'auteur de nombreux romans pour la jeunesse, de biographies et d'essais portant principalement sur la littérature, la bibliophilie, l’actualité politique et sociale.
@@ -512,17 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Bergeron naît le 27 juin 1952 à Crosne (Essonne). En 1968, alors élève au lycée Saint-Exupéry de Fameck (Moselle), il décide, après avoir lu La Bataille de Pierre Sergent, de rejoindre le Mouvement jeune révolution (MJR) de Jean-Pierre Stirbois et Nicolas Kayanakis. La rencontre avec Jean-Pierre Stirbois est décisive[1]. Inscrit en sciences économiques à la faculté de Dauphine, il est condamné par le tribunal de grande instance de Paris, en audience de flagrant délit le 10 décembre 1974, à la suite de manifestations contre la visite de Léonid Brejnev, qui avaient eu lieu le 7 décembre 1974, trois mois de prison avec sursis pour violences, aux côtés de Michel Bodin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Bergeron naît le 27 juin 1952 à Crosne (Essonne). En 1968, alors élève au lycée Saint-Exupéry de Fameck (Moselle), il décide, après avoir lu La Bataille de Pierre Sergent, de rejoindre le Mouvement jeune révolution (MJR) de Jean-Pierre Stirbois et Nicolas Kayanakis. La rencontre avec Jean-Pierre Stirbois est décisive. Inscrit en sciences économiques à la faculté de Dauphine, il est condamné par le tribunal de grande instance de Paris, en audience de flagrant délit le 10 décembre 1974, à la suite de manifestations contre la visite de Léonid Brejnev, qui avaient eu lieu le 7 décembre 1974, trois mois de prison avec sursis pour violences, aux côtés de Michel Bodin.
 Il ne tarde pas à rejoindre les réseaux de l'Union des solidaristes russes (NTS), fondée à Belgrade en 1930, qui se charge, parmi d'autres activités, d'acheminer des livres interdits en Union soviétique. Le 24 mars 1975, il est expulsé d'Union soviétique, après avoir été arrêté sur la place Rouge de Moscou, alors qu'il distribue avec Jacques Arnould des tracts et L'Archipel du Goulag d'Alexandre Soljenitsyne, en langue russe.
-En 1976, il s'engage dans la Guerre du Liban aux côtés des Phalanges libanaises[3]. Il est également membre du Comité étudiant pour les libertés universitaires (CELU), branche étudiante de l'Office international des œuvres de formation civique et d'action culturelle selon le droit naturel et chrétien (OIOFCACDNC), « formule rigoureusement imprononçable, même par le jeu d'initiales » selon son fondateur, Jean Ousset[4], pour désigner ce qui fut la Cité catholique .
-Aux élections législatives de 1978, alors qu'il accomplit son service militaire, il est candidat « pour la défense de l'armée » dans la 1re circonscription du Puy-de-Dôme[5]. 
+En 1976, il s'engage dans la Guerre du Liban aux côtés des Phalanges libanaises. Il est également membre du Comité étudiant pour les libertés universitaires (CELU), branche étudiante de l'Office international des œuvres de formation civique et d'action culturelle selon le droit naturel et chrétien (OIOFCACDNC), « formule rigoureusement imprononçable, même par le jeu d'initiales » selon son fondateur, Jean Ousset, pour désigner ce qui fut la Cité catholique .
+Aux élections législatives de 1978, alors qu'il accomplit son service militaire, il est candidat « pour la défense de l'armée » dans la 1re circonscription du Puy-de-Dôme. 
 En 1979, il fonde l'Association pour la Russie libre et l’association régionaliste Maintenance du Berry, centrée sur la vie artistique et culturelle locale.
 Journaliste à Présent — dès l'origine — , dont il a assuré la cogérance de 2018 à 2022, et occasionnellement au Quotidien de Paris de Smadja et Tesson, il collabore à la revue littéraire Livr'arbitres.
 Titulaire d'une maîtrise ès sciences économiques, il fut directeur du personnel des Nouvelles messageries de la presse parisienne (NMPP), qu'il quitta sous pression de la CGT. Cet épisode lui inspira un ouvrage paru en 1989, Le Syndicat du livre ou la mainmise communiste sur la presse, où il relate notamment ses conflits avec les syndicalistes proches du Parti communiste.
-Il anime en 1989 le comité Vérité 89 en Bas-Berry, en réaction aux célébrations du Bicentenaire de la Révolution française qui se concrétisera par l'érection d'un monument en présence du Duc d'Aquitaine à la mémoire de la petite Chouannerie du Bas-Berry (mars 1796), à proximité  de Buzançais, département de l'Indre. En novembre 1989, il participe à Nice , en compagnie du journaliste Jean-François Revel, aux Assises internationales de la désinformation, organisées par l'Institut d'études de la désinformation et soutenues par la municipalité de Jacques Médecin[6].
-Il préside également l'Association rétaise des amis d'Henri Béraud, qui a édité plus de 50 publications, dont des Cahiers Henri Béraud (deux à trois par an), et qui a rendu souvent hommage à l'écrivain sur l'île de Ré (promenade-conférence et dépôt de gerbe sur sa tombe)[7] ; et est le vice-président de l'institut Emmanuel Ratier, destiné à la préservation des archives accumulées par le journaliste d'extrême droite Emmanuel Ratier[8].
+Il anime en 1989 le comité Vérité 89 en Bas-Berry, en réaction aux célébrations du Bicentenaire de la Révolution française qui se concrétisera par l'érection d'un monument en présence du Duc d'Aquitaine à la mémoire de la petite Chouannerie du Bas-Berry (mars 1796), à proximité  de Buzançais, département de l'Indre. En novembre 1989, il participe à Nice , en compagnie du journaliste Jean-François Revel, aux Assises internationales de la désinformation, organisées par l'Institut d'études de la désinformation et soutenues par la municipalité de Jacques Médecin.
+Il préside également l'Association rétaise des amis d'Henri Béraud, qui a édité plus de 50 publications, dont des Cahiers Henri Béraud (deux à trois par an), et qui a rendu souvent hommage à l'écrivain sur l'île de Ré (promenade-conférence et dépôt de gerbe sur sa tombe) ; et est le vice-président de l'institut Emmanuel Ratier, destiné à la préservation des archives accumulées par le journaliste d'extrême droite Emmanuel Ratier.
 Francis Bergeron est surtout connu pour être l'auteur de nombreux romans pour la jeunesse, dont la série Le clan des Bordesoule (vendue à plus de 300 000 exemplaires[réf. nécessaire]) et d'une quinzaine de biographies, dont deux ouvrages sur Hergé, qui, parus lors de la sortie du film de Steven Spielberg tiré des albums Tintin, ont eu de fortes ventes[réf. nécessaire].
 Il écrit également sous le nom de plume « Agathon ».
 </t>
@@ -553,7 +567,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vade-mecum du voyageur de la liberté, Le Trident, 1978
 Cinq continents accusent Amnesty International (avec Hugues Kéraly, Jean Nerle et Alain Sanders), Éditions Dominique Martin Morin, 1982
@@ -588,9 +604,43 @@
 Félicien Marceau, Pardès, coll. « Qui suis-je ? », 2017 (ISBN 978-2-86714-514-8)
 Présent : un défi au quotidien, Éditions Dualpha, 2019  (ISBN 9782353744312)
 Histoire secrète des prétendus « néonazis » de Châteauroux (2001-2021), Éditions Dualpha, coll. Vérités pour l'Histoire, 120 p., 2021  (ISBN 9782353745463)
-Le choc Marine - Eric, Journal d'une campagne présidentielle (décembre 2021-avril 2022), Editions Dualpha, ill. de Chard, Mario et Miège, 164 p., 2022
-Romans pour la jeunesse
-Série des romans pour la jeunesse Le Clan des Bordesoule, illustrée par Chard, Marie-Marthe Collin, François Dimberton et publiée par les éditions Elor, à partir de 1988, puis du Triomphe depuis 1992 :
+Le choc Marine - Eric, Journal d'une campagne présidentielle (décembre 2021-avril 2022), Editions Dualpha, ill. de Chard, Mario et Miège, 164 p., 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Bergeron</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Bergeron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Série des romans pour la jeunesse Le Clan des Bordesoule, illustrée par Chard, Marie-Marthe Collin, François Dimberton et publiée par les éditions Elor, à partir de 1988, puis du Triomphe depuis 1992 :
 Tome 1 : Le Secret de la statue volé, Éditions Elor, 1988, réédité au Triomphe à partir de 1992
 Tome 2 : Le Secret d'Argentomagus (préface des archéologues Gérard Coulon, puis Isabelle Fauduet pour sa réédition), Éditions Elor, 1990, réédité au Triomphe à partir de 1992
 Tome 3 : Le Secret des mille étangs (préface de Dom Forgeot), Éditions Elor, 1991, réédité au Triomphe à partir de 1992
